--- a/Documents/Prévision valeurs IR sensor.xlsx
+++ b/Documents/Prévision valeurs IR sensor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="21840" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -302,11 +298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107923136"/>
-        <c:axId val="107922560"/>
+        <c:axId val="88053376"/>
+        <c:axId val="88053952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107923136"/>
+        <c:axId val="88053376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,12 +312,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107922560"/>
+        <c:crossAx val="88053952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107922560"/>
+        <c:axId val="88053952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +328,357 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107923136"/>
+        <c:crossAx val="88053376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.42737860892388452"/>
+                  <c:y val="-4.0922645086030829E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="91362368"/>
+        <c:axId val="91361792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91362368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91361792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91361792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91362368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.087729658792651E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.57216338582677162"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.38356014873140859"/>
+                  <c:y val="-0.18140419947506561"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="87316096"/>
+        <c:axId val="87315520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="87316096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87315520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="87315520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87316096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -381,6 +727,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,15 +1082,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B31"/>
+  <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -693,25 +1099,37 @@
         <v>1141.0540000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B31" si="0">-3.9346*A3 + 1180.4</f>
+        <f>-3.9346*A3 + 1180.4</f>
         <v>1101.7080000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>60</v>
+      </c>
+      <c r="M3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B31" si="0">-3.9346*A4 + 1180.4</f>
         <v>1062.3620000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -719,8 +1137,14 @@
         <f t="shared" si="0"/>
         <v>1023.0160000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -728,8 +1152,14 @@
         <f t="shared" si="0"/>
         <v>983.67000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -737,8 +1167,14 @@
         <f t="shared" si="0"/>
         <v>944.32400000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70</v>
       </c>
@@ -746,8 +1182,14 @@
         <f t="shared" si="0"/>
         <v>904.97800000000007</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80</v>
       </c>
@@ -755,8 +1197,14 @@
         <f t="shared" si="0"/>
         <v>865.63200000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90</v>
       </c>
@@ -764,8 +1212,14 @@
         <f t="shared" si="0"/>
         <v>826.28600000000006</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -774,7 +1228,7 @@
         <v>786.94</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>110</v>
       </c>
@@ -783,7 +1237,7 @@
         <v>747.59400000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>120</v>
       </c>
@@ -792,7 +1246,7 @@
         <v>708.24800000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>130</v>
       </c>
@@ -801,7 +1255,7 @@
         <v>668.90200000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>140</v>
       </c>
@@ -810,7 +1264,7 @@
         <v>629.55600000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>150</v>
       </c>

--- a/Documents/Prévision valeurs IR sensor.xlsx
+++ b/Documents/Prévision valeurs IR sensor.xlsx
@@ -298,11 +298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88053376"/>
-        <c:axId val="88053952"/>
+        <c:axId val="90232448"/>
+        <c:axId val="90233024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88053376"/>
+        <c:axId val="90232448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,12 +312,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88053952"/>
+        <c:crossAx val="90233024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88053952"/>
+        <c:axId val="90233024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88053376"/>
+        <c:crossAx val="90232448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -468,11 +468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="91362368"/>
-        <c:axId val="91361792"/>
+        <c:axId val="114106368"/>
+        <c:axId val="114106944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91362368"/>
+        <c:axId val="114106368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,12 +482,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91361792"/>
+        <c:crossAx val="114106944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91361792"/>
+        <c:axId val="114106944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,7 +498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91362368"/>
+        <c:crossAx val="114106368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -572,6 +572,24 @@
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$M$3:$M$10</c:f>
@@ -648,11 +666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87316096"/>
-        <c:axId val="87315520"/>
+        <c:axId val="114108672"/>
+        <c:axId val="114109248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87316096"/>
+        <c:axId val="114108672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,12 +680,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87315520"/>
+        <c:crossAx val="114109248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87315520"/>
+        <c:axId val="114109248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87316096"/>
+        <c:crossAx val="114108672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1085,7 +1103,7 @@
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B3:B31" si="0">-3.9346*A4 + 1180.4</f>
+        <f t="shared" ref="B4:B31" si="0">-3.9346*A4 + 1180.4</f>
         <v>1062.3620000000001</v>
       </c>
       <c r="L4">

--- a/Documents/Prévision valeurs IR sensor.xlsx
+++ b/Documents/Prévision valeurs IR sensor.xlsx
@@ -13,6 +13,53 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>régression exponentielle</t>
+  </si>
+  <si>
+    <t>Marge d'erreur</t>
+  </si>
+  <si>
+    <t>Mesures</t>
+  </si>
+  <si>
+    <t>régression polynomiale</t>
+  </si>
+  <si>
+    <t>coefficient</t>
+  </si>
+  <si>
+    <t>x^5</t>
+  </si>
+  <si>
+    <t>x^4</t>
+  </si>
+  <si>
+    <t>x^3</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>x^1</t>
+  </si>
+  <si>
+    <t>x^0</t>
+  </si>
+  <si>
+    <t>Taux d'erreur (Régression polynomiale)</t>
+  </si>
+  <si>
+    <t>Taux d'erreur (régression exponentielle)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,8 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -76,6 +128,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Régression exponentielle des mesures</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -85,205 +156,411 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Mesures</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.2289986899569654"/>
+                  <c:y val="-0.52657266914751599"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr b="0" i="1"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0"/>
+                      <a:t>Equation : y = 23447x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="30000"/>
+                      <a:t>-1,337</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400" b="0" i="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$31</c:f>
+              <c:f>Feuil1!$A$5:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>290</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300</c:v>
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>110.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>109.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>109.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>108.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>108.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>107.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>107.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>107.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>107.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>107.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$31</c:f>
+              <c:f>Feuil1!$B$5:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
-                  <c:v>1141.0540000000001</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1101.7080000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1062.3620000000001</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1023.0160000000001</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>983.67000000000007</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>944.32400000000007</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>904.97800000000007</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>865.63200000000006</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>826.28600000000006</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>786.94</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>747.59400000000005</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>708.24800000000005</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>668.90200000000004</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>629.55600000000004</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>590.21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>550.86400000000003</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>511.51800000000003</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>472.17200000000003</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>432.82600000000002</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>393.48</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>354.13400000000001</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>314.78800000000012</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>275.44200000000012</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>236.09600000000012</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>196.75000000000011</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>157.40400000000011</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>118.05799999999999</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>78.711999999999989</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>39.365999999999985</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.999999999998181E-2</c:v>
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -298,11 +575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90232448"/>
-        <c:axId val="90233024"/>
+        <c:axId val="96594176"/>
+        <c:axId val="66369152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90232448"/>
+        <c:axId val="96594176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,12 +589,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90233024"/>
+        <c:crossAx val="66369152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90233024"/>
+        <c:axId val="66369152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90232448"/>
+        <c:crossAx val="96594176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -364,6 +641,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Approximation polynomiale de la régression exponentielle </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -373,87 +669,466 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>régression exponentielle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:trendline>
-            <c:trendlineType val="power"/>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.42737860892388452"/>
-                  <c:y val="-4.0922645086030829E-2"/>
+                  <c:x val="0.32436045419420811"/>
+                  <c:y val="-0.5381063292292072"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+                      <a:t>Equation du polynome : y = -1E-11x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" i="1" baseline="30000"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+                      <a:t> + 2E-08x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" i="1" baseline="30000"/>
+                      <a:t>4</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+                      <a:t> - 2E-05x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" i="1" baseline="30000"/>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+                      <a:t> + 0,0075x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" i="1" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+                      <a:t> - 1,5547x + 145,55</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400" i="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$L$3:$L$10</c:f>
+              <c:f>Feuil1!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>110.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>109.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>109.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>109.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>108.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>108.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>107.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>107.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>107.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>107.6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>107.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$M$3:$M$10</c:f>
+              <c:f>Feuil1!$C$2:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
+                  <c:v>4.4172317523500713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>5.4801293946541545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>3.9285387701563517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243</c:v>
+                  <c:v>3.9364273358954334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>251</c:v>
+                  <c:v>4.0581631384674433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>4.9161725937809209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>525</c:v>
+                  <c:v>5.9332838340173817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>660</c:v>
+                  <c:v>7.4811731344134973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3942277278262196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.488219370173345</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.428284541821972</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.747057926762597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.988985126032617</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.938435236255398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.405415851607117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.998229226410871</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.629525333226432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.777377247131298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.979907179140575</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.979907179140575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.056865299344523</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.056865299344523</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.684975426711443</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.845947412207739</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.129035453388219</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.223048247482023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.174993455249201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.628270026948673</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34.973977104983298</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.660332447332074</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38.924402743316627</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39.362347950965543</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.808979045748792</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.264544116155776</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.729300539582603</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41.203515414044737</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.444256008164309</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.687466013923149</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41.933181759641087</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.181440271306123</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.432279289135593</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.685737284606034</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.941853477967221</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.200667856257049</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43.462221191832541</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.620485154553741</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43.779759215977741</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43.940052606720478</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44.101374667329225</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44.263734849898022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44.427142719711725</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44.591607956918459</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44.757140358231744</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44.812556683179523</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44.868093052769225</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44.923749838662538</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44.979527414018513</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45.035426153500069</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45.091446433282243</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45.147588631059151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,11 +1143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114106368"/>
-        <c:axId val="114106944"/>
+        <c:axId val="103467264"/>
+        <c:axId val="103464960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114106368"/>
+        <c:axId val="103467264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,12 +1157,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114106944"/>
+        <c:crossAx val="103464960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114106944"/>
+        <c:axId val="103464960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,7 +1173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114106368"/>
+        <c:crossAx val="103467264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -534,129 +1209,843 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Taux d'erreur selon le type</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> de régression</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.087729658792651E-2"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.57216338582677162"/>
-          <c:h val="0.8326195683872849"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taux d'erreur (régression exponentielle)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.38356014873140859"/>
-                  <c:y val="-0.18140419947506561"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="22225">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$M$3:$M$10</c:f>
+              <c:f>Feuil1!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>251</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>525</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>660</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$L$3:$L$10</c:f>
+              <c:f>Feuil1!$E$2:$E$61</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>0.77361387039111629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>0.63504511372468819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>0.23635728816274271</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>1.6149838084107686E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>0.23208452430235207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>0.22046162650801712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0.17978512335223187</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>6.9351003681480394E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2165336921428985E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6549309557898405E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18083356323431751</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18627837094050498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13269645071421018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1216201720885379</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.566779801984957E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.872548329092301E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5708580992816839E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1399671365182876E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13557414755457084</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0078050057442988E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7005586318820602E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4789890957075938E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8920250680899637E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.1421154843635107E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11123863306913777</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13972939502665349</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4395031239795385E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1945790868860161E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1708120608374302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20340586366424246</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20358444021796218</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18704036558329715</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17104128789446874</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15558462795663902</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14066778618048217</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.12628814220718299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10723454674367452</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.8455028969416774E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9948943451368401E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.1715642170474793E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3754474497492186E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6064787168460954E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3540757401776485E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8502772836813418E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5381965440285421E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4550398442733752E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.355547042038113E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.2397417673063212E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.11107647708541227</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12959288613024017</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.14794688287194277</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16613870596994512</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.18416859468217181</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.20501939627713769</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.2258154126433381</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24655666993775652</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.26724319433901245</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.28787501204742899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.30845214928505327</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.32897463229571416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taux d'erreur (Régression polynomiale)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$2:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.80002279868765991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60187262070655112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18216170763885439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4100737259652397E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14100195062129112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22105236650710189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29130899287252343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0964003611575298E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5560939159537353E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9219552457656096E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19074117600417298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18436044518692035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12886949472514017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11218238376248578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3864359503596488E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4746237002858853E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.024105939601064E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5773002759373973E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12748805676515362</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1566375542266978E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3178122017168567E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.7380565163703372E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5123833164838624E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.3942180647488115E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11866850120310411</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14995035764773276</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2612611896857964E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1091521421364281E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18215794075299122</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.21233786583779649</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2109801291475347</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19396132875735628</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17740048686237039</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16129116469163951</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14562692799150853</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13040134988204757</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.11093668295236128</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.1705527522936217E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.2706291818358262E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3937384644692041E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5397215563451094E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.708419506330381E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0032652704938495E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8866752588958494E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6507852614535673E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.617051725331846E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.5695563472737079E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.5083561144389733E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.11433507985564541</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.13345068888860909</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.15243095719927108</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17127645339682929</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.18998774572319954</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.21114755722007547</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.23226064876426644</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.25332708358947087</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.2743469249194288</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.29532023596765244</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.31624707993717344</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.33712752002028784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -666,11 +2055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114108672"/>
-        <c:axId val="114109248"/>
+        <c:axId val="103468992"/>
+        <c:axId val="103466112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114108672"/>
+        <c:axId val="103468992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,23 +2069,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114109248"/>
+        <c:crossAx val="103466112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114109248"/>
+        <c:axId val="103466112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114108672"/>
+        <c:crossAx val="103468992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -722,20 +2111,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>405791</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -752,20 +2141,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>405491</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124180</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="8" name="Graphique 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -782,20 +2171,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406380</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>176834</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="11" name="Graphique 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1100,330 +2489,2018 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M31"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>611</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>23447*A2^-1.337</f>
+        <v>4.4172317523500713</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>3.4172317523500713</v>
+      </c>
+      <c r="E2" s="1">
+        <f>ABS((C2-B2)/C2)</f>
+        <v>0.77361387039111629</v>
+      </c>
+      <c r="F2" s="3">
+        <f>$J$2*A2^5 + $J$3*A2^4 + $J$4*A2^3 + $J$5*A2^2 + $J$6*A2 + $J$7</f>
+        <v>5.0005700321714244</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2-B2</f>
+        <v>4.0005700321714244</v>
+      </c>
+      <c r="H2" s="1">
+        <f>ABS((F2-B2)/F2)</f>
+        <v>0.80002279868765991</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <f>-9.93030764967767E-12</f>
+        <v>-9.9303076496776708E-12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>520</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C61" si="0">23447*A3^-1.337</f>
+        <v>5.4801293946541545</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D61" si="1">C3-B3</f>
+        <v>3.4801293946541545</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E61" si="2">ABS((C3-B3)/C3)</f>
+        <v>0.63504511372468819</v>
+      </c>
+      <c r="F3" s="3">
+        <f>$J$2*A3^5 + $J$3*A3^4 + $J$4*A3^3 + $J$5*A3^2 + $J$6*A3 + $J$7</f>
+        <v>5.0235178589057909</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G61" si="3">F3-B3</f>
+        <v>3.0235178589057909</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H61" si="4">ABS((F3-B3)/F3)</f>
+        <v>0.60187262070655112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f>2.14781420224059E-08</f>
+        <v>2.1478142022405899E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>667</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.9285387701563517</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.92853877015635167</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23635728816274271</v>
+      </c>
+      <c r="F4" s="3">
+        <f>$J$2*A4^5 + $J$3*A4^4 + $J$4*A4^3 + $J$5*A4^2 + $J$6*A4 + $J$7</f>
+        <v>3.6682068179258636</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.66820681792586356</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.18216170763885439</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <f>-0.0000180638025675828</f>
+        <v>-1.8063802567582799E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>666</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3.9364273358954334</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-6.3572664104566634E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6149838084107686E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f>$J$2*A5^5 + $J$3*A5^4 + $J$4*A5^3 + $J$5*A5^2 + $J$6*A5 + $J$7</f>
+        <v>3.7240454840438701</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.27595451595612985</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="4"/>
+        <v>7.4100737259652397E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <f>0.007451829732734</f>
+        <v>7.4518297327340003E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>651</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4.0581631384674433</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-0.94183686153255675</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23208452430235207</v>
+      </c>
+      <c r="F6" s="3">
+        <f>$J$2*A6^5 + $J$3*A6^4 + $J$4*A6^3 + $J$5*A6^2 + $J$6*A6 + $J$7</f>
+        <v>4.382113455001047</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.61788654499895301</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14100195062129112</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <f>-3.9346*A2 + 1180.4</f>
-        <v>1141.0540000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="J6">
+        <f>-1.55467900656442</f>
+        <v>-1.55467900656442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>564</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4.9161725937809209</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-1.0838274062190791</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22046162650801712</v>
+      </c>
+      <c r="F7" s="3">
+        <f>$J$2*A7^5 + $J$3*A7^4 + $J$4*A7^3 + $J$5*A7^2 + $J$6*A7 + $J$7</f>
+        <v>4.9137941701578143</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.0862058298421857</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.22105236650710189</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <f>145.552025091649</f>
+        <v>145.552025091649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>490</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5.9332838340173817</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-1.0667161659826183</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17978512335223187</v>
+      </c>
+      <c r="F8" s="3">
+        <f>$J$2*A8^5 + $J$3*A8^4 + $J$4*A8^3 + $J$5*A8^2 + $J$6*A8 + $J$7</f>
+        <v>5.4208559211134002</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.5791440788865998</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.29130899287252343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>412</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7.4811731344134973</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-0.51882686558650271</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9351003681480394E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f>$J$2*A9^5 + $J$3*A9^4 + $J$4*A9^3 + $J$5*A9^2 + $J$6*A9 + $J$7</f>
+        <v>7.6120589977472832</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.38794100225271677</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0964003611575298E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>378</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>8.3942277278262196</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-0.60577227217378038</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2165336921428985E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f>$J$2*A10^5 + $J$3*A10^4 + $J$4*A10^3 + $J$5*A10^2 + $J$6*A10 + $J$7</f>
+        <v>8.8620974408963207</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.13790255910367932</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5560939159537353E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>320</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10.488219370173345</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.48821937017334527</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6549309557898405E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>$J$2*A11^5 + $J$3*A11^4 + $J$4*A11^3 + $J$5*A11^2 + $J$6*A11 + $J$7</f>
+        <v>11.101484304287055</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1014843042870552</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>9.9219552457656096E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>266</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>13.428284541821972</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.4282845418219718</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18083356323431751</v>
+      </c>
+      <c r="F12" s="3">
+        <f>$J$2*A12^5 + $J$3*A12^4 + $J$4*A12^3 + $J$5*A12^2 + $J$6*A12 + $J$7</f>
+        <v>13.592684656419294</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5926846564192942</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.19074117600417298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>248</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>14.747057926762597</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2.7470579267625972</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18627837094050498</v>
+      </c>
+      <c r="F13" s="3">
+        <f>$J$2*A13^5 + $J$3*A13^4 + $J$4*A13^3 + $J$5*A13^2 + $J$6*A13 + $J$7</f>
+        <v>14.712381135990938</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7123811359909382</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.18436044518692035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>245</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>14.988985126032617</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1.9889851260326168</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13269645071421018</v>
+      </c>
+      <c r="F14" s="3">
+        <f>$J$2*A14^5 + $J$3*A14^4 + $J$4*A14^3 + $J$5*A14^2 + $J$6*A14 + $J$7</f>
+        <v>14.923137143381553</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9231371433815525</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.12886949472514017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>234</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>15.938435236255398</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.9384352362553976</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1216201720885379</v>
+      </c>
+      <c r="F15" s="3">
+        <f>$J$2*A15^5 + $J$3*A15^4 + $J$4*A15^3 + $J$5*A15^2 + $J$6*A15 + $J$7</f>
+        <v>15.769004516187294</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7690045161872945</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11218238376248578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>229</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>16.405415851607117</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.4054158516071169</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>8.566779801984957E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f>$J$2*A16^5 + $J$3*A16^4 + $J$4*A16^3 + $J$5*A16^2 + $J$6*A16 + $J$7</f>
+        <v>16.19633166472255</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1963316647225497</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="4"/>
+        <v>7.3864359503596488E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>223</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>16.998229226410871</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.99822922641087075</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>5.872548329092301E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>$J$2*A17^5 + $J$3*A17^4 + $J$4*A17^3 + $J$5*A17^2 + $J$6*A17 + $J$7</f>
+        <v>16.74947602383628</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74947602383628009</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4746237002858853E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>217</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>17.629525333226432</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.62952533322643234</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5708580992816839E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <f>$J$2*A18^5 + $J$3*A18^4 + $J$4*A18^3 + $J$5*A18^2 + $J$6*A18 + $J$7</f>
+        <v>17.351206807584788</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.35120680758478784</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>2.024105939601064E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>207</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>18.777377247131298</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.77737724713129808</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1399671365182876E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <f>$J$2*A19^5 + $J$3*A19^4 + $J$4*A19^3 + $J$5*A19^2 + $J$6*A19 + $J$7</f>
+        <v>18.476186813733051</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47618681373305094</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5773002759373973E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>184</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>21.979907179140575</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2.9799071791405751</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13557414755457084</v>
+      </c>
+      <c r="F20" s="3">
+        <f>$J$2*A20^5 + $J$3*A20^4 + $J$4*A20^3 + $J$5*A20^2 + $J$6*A20 + $J$7</f>
+        <v>21.776206213931374</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7762062139313741</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.12748805676515362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>184</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B3">
-        <f>-3.9346*A3 + 1180.4</f>
-        <v>1101.7080000000001</v>
-      </c>
-      <c r="L3">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>21.979907179140575</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1.9799071791405751</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0078050057442988E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <f>$J$2*A21^5 + $J$3*A21^4 + $J$4*A21^3 + $J$5*A21^2 + $J$6*A21 + $J$7</f>
+        <v>21.776206213931374</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7762062139313741</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="4"/>
+        <v>8.1566375542266978E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>190</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>21.056865299344523</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>5.6865299344522668E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7005586318820602E-3</v>
+      </c>
+      <c r="F22" s="3">
+        <f>$J$2*A22^5 + $J$3*A22^4 + $J$4*A22^3 + $J$5*A22^2 + $J$6*A22 + $J$7</f>
+        <v>20.80613236596983</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.19386763403016971</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="4"/>
+        <v>9.3178122017168567E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>190</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>21.056865299344523</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>-0.94313470065547733</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4789890957075938E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <f>$J$2*A23^5 + $J$3*A23^4 + $J$4*A23^3 + $J$5*A23^2 + $J$6*A23 + $J$7</f>
+        <v>20.80613236596983</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.1938676340301697</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7380565163703372E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>174</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>23.684975426711443</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.68497542671144274</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8920250680899637E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <f>$J$2*A24^5 + $J$3*A24^4 + $J$4*A24^3 + $J$5*A24^2 + $J$6*A24 + $J$7</f>
+        <v>23.592740065302053</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5927400653020527</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5123833164838624E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>163</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>25.845947412207739</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.8459474122077388</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>7.1421154843635107E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <f>$J$2*A25^5 + $J$3*A25^4 + $J$4*A25^3 + $J$5*A25^2 + $J$6*A25 + $J$7</f>
+        <v>25.916308354029667</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9163083540296668</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="4"/>
+        <v>7.3942180647488115E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>153</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>28.129035453388219</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>3.1290354533882194</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11123863306913777</v>
+      </c>
+      <c r="F26" s="3">
+        <f>$J$2*A26^5 + $J$3*A26^4 + $J$4*A26^3 + $J$5*A26^2 + $J$6*A26 + $J$7</f>
+        <v>28.36617099709639</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3661709970963898</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11866850120310411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>145</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>30.223048247482023</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>4.2230482474820228</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13972939502665349</v>
+      </c>
+      <c r="F27" s="3">
+        <f>$J$2*A27^5 + $J$3*A27^4 + $J$4*A27^3 + $J$5*A27^2 + $J$6*A27 + $J$7</f>
+        <v>30.586448960854213</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="3"/>
+        <v>4.5864489608542129</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14995035764773276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>157</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>27.174993455249201</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.17499345524920074</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4395031239795385E-3</v>
+      </c>
+      <c r="F28" s="3">
+        <f>$J$2*A28^5 + $J$3*A28^4 + $J$4*A28^3 + $J$5*A28^2 + $J$6*A28 + $J$7</f>
+        <v>27.344890491126662</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.34489049112666237</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2612611896857964E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>151</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>28.628270026948673</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.62827002694867318</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1945790868860161E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <f>$J$2*A29^5 + $J$3*A29^4 + $J$4*A29^3 + $J$5*A29^2 + $J$6*A29 + $J$7</f>
+        <v>28.898498278263901</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.89849827826390083</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1091521421364281E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>130</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>34.973977104983298</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>5.9739771049832981</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1708120608374302</v>
+      </c>
+      <c r="F30" s="3">
+        <f>$J$2*A30^5 + $J$3*A30^4 + $J$4*A30^3 + $J$5*A30^2 + $J$6*A30 + $J$7</f>
+        <v>35.45916925170178</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="3"/>
+        <v>6.4591692517017805</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="4"/>
+        <v>0.18215794075299122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>123</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>37.660332447332074</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>7.660332447332074</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20340586366424246</v>
+      </c>
+      <c r="F31" s="3">
+        <f>$J$2*A31^5 + $J$3*A31^4 + $J$4*A31^3 + $J$5*A31^2 + $J$6*A31 + $J$7</f>
+        <v>38.087396484927496</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="3"/>
+        <v>8.0873964849274955</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21233786583779649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>120</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>38.924402743316627</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>7.9244027433166266</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20358444021796218</v>
+      </c>
+      <c r="F32" s="3">
+        <f>$J$2*A32^5 + $J$3*A32^4 + $J$4*A32^3 + $J$5*A32^2 + $J$6*A32 + $J$7</f>
+        <v>39.289251316962748</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="3"/>
+        <v>8.2892513169627478</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2109801291475347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>119</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>39.362347950965543</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>7.3623479509655425</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18704036558329715</v>
+      </c>
+      <c r="F33" s="3">
+        <f>$J$2*A33^5 + $J$3*A33^4 + $J$4*A33^3 + $J$5*A33^2 + $J$6*A33 + $J$7</f>
+        <v>39.70032846025444</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="3"/>
+        <v>7.7003284602544397</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="4"/>
+        <v>0.19396132875735628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>118</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>39.808979045748792</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>6.8089790457487922</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17104128789446874</v>
+      </c>
+      <c r="F34" s="3">
+        <f>$J$2*A34^5 + $J$3*A34^4 + $J$4*A34^3 + $J$5*A34^2 + $J$6*A34 + $J$7</f>
+        <v>40.116726879801533</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="3"/>
+        <v>7.1167268798015328</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17740048686237039</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>117</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>40.264544116155776</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>6.2645441161557756</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15558462795663902</v>
+      </c>
+      <c r="F35" s="3">
+        <f>$J$2*A35^5 + $J$3*A35^4 + $J$4*A35^3 + $J$5*A35^2 + $J$6*A35 + $J$7</f>
+        <v>40.538502241364284</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="3"/>
+        <v>6.5385022413642844</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.16129116469163951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>116</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>40.729300539582603</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>5.7293005395826029</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14066778618048217</v>
+      </c>
+      <c r="F36" s="3">
+        <f>$J$2*A36^5 + $J$3*A36^4 + $J$4*A36^3 + $J$5*A36^2 + $J$6*A36 + $J$7</f>
+        <v>40.965710585565063</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="3"/>
+        <v>5.9657105855650627</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14562692799150853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>115</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>41.203515414044737</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>5.2035154140447375</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12628814220718299</v>
+      </c>
+      <c r="F37" s="3">
+        <f>$J$2*A37^5 + $J$3*A37^4 + $J$4*A37^3 + $J$5*A37^2 + $J$6*A37 + $J$7</f>
+        <v>41.398408329080269</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="3"/>
+        <v>5.3984083290802687</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13040134988204757</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>114.5</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>41.444256008164309</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>4.4442560081643094</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10723454674367452</v>
+      </c>
+      <c r="F38" s="3">
+        <f>$J$2*A38^5 + $J$3*A38^4 + $J$4*A38^3 + $J$5*A38^2 + $J$6*A38 + $J$7</f>
+        <v>41.616833458912609</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="3"/>
+        <v>4.616833458912609</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11093668295236128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>114</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>41.687466013923149</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>3.6874660139231494</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8455028969416774E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <f>$J$2*A39^5 + $J$3*A39^4 + $J$4*A39^3 + $J$5*A39^2 + $J$6*A39 + $J$7</f>
+        <v>41.836652265831745</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="3"/>
+        <v>3.836652265831745</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="4"/>
+        <v>9.1705527522936217E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>113.5</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>41.933181759641087</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>2.9331817596410872</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9948943451368401E-2</v>
+      </c>
+      <c r="F40" s="3">
+        <f>$J$2*A40^5 + $J$3*A40^4 + $J$4*A40^3 + $J$5*A40^2 + $J$6*A40 + $J$7</f>
+        <v>42.057871908218033</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="3"/>
+        <v>3.0578719082180328</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2706291818358262E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>113</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>42.181440271306123</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>2.1814402713061227</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1715642170474793E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <f>$J$2*A41^5 + $J$3*A41^4 + $J$4*A41^3 + $J$5*A41^2 + $J$6*A41 + $J$7</f>
+        <v>42.280499568178584</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="3"/>
+        <v>2.280499568178584</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="4"/>
+        <v>5.3937384644692041E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>112.5</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>42.432279289135593</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>1.4322792891355931</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3754474497492186E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <f>$J$2*A42^5 + $J$3*A42^4 + $J$4*A42^3 + $J$5*A42^2 + $J$6*A42 + $J$7</f>
+        <v>42.504542451584598</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="3"/>
+        <v>1.504542451584598</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5397215563451094E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>112</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>42.685737284606034</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0.68573728460603434</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6064787168460954E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <f>$J$2*A43^5 + $J$3*A43^4 + $J$4*A43^3 + $J$5*A43^2 + $J$6*A43 + $J$7</f>
+        <v>42.730007788108537</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="3"/>
+        <v>0.73000778810853717</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="4"/>
+        <v>1.708419506330381E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>111.5</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>42.941853477967221</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>-5.8146522032778591E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3540757401776485E-3</v>
+      </c>
+      <c r="F44" s="3">
+        <f>$J$2*A44^5 + $J$3*A44^4 + $J$4*A44^3 + $J$5*A44^2 + $J$6*A44 + $J$7</f>
+        <v>42.956902831261417</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="3"/>
+        <v>-4.3097168738583491E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0032652704938495E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>111</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>43.200667856257049</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>-0.79933214374295147</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8502772836813418E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <f>$J$2*A45^5 + $J$3*A45^4 + $J$4*A45^3 + $J$5*A45^2 + $J$6*A45 + $J$7</f>
+        <v>43.185234858429936</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.81476514157006363</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8866752588958494E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>110.5</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>43.462221191832541</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>-1.5377788081674595</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5381965440285421E-2</v>
+      </c>
+      <c r="F46" s="3">
+        <f>$J$2*A46^5 + $J$3*A46^4 + $J$4*A46^3 + $J$5*A46^2 + $J$6*A46 + $J$7</f>
+        <v>43.415011170913857</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.5849888290861429</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6507852614535673E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>110.2</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>43.620485154553741</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>-2.3795148454462591</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4550398442733752E-2</v>
+      </c>
+      <c r="F47" s="3">
+        <f>$J$2*A47^5 + $J$3*A47^4 + $J$4*A47^3 + $J$5*A47^2 + $J$6*A47 + $J$7</f>
+        <v>43.553573261662137</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="3"/>
+        <v>-2.4464267383378626</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="4"/>
+        <v>5.617051725331846E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>109.9</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>43.779759215977741</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>-3.2202407840222591</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>7.355547042038113E-2</v>
+      </c>
+      <c r="F48" s="3">
+        <f>$J$2*A48^5 + $J$3*A48^4 + $J$4*A48^3 + $J$5*A48^2 + $J$6*A48 + $J$7</f>
+        <v>43.692659518151103</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="3"/>
+        <v>-3.3073404818488967</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="4"/>
+        <v>7.5695563472737079E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>109.6</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>43.940052606720478</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>-4.059947393279522</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2397417673063212E-2</v>
+      </c>
+      <c r="F49" s="3">
+        <f>$J$2*A49^5 + $J$3*A49^4 + $J$4*A49^3 + $J$5*A49^2 + $J$6*A49 + $J$7</f>
+        <v>43.832271529890193</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="3"/>
+        <v>-4.1677284701098074</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="4"/>
+        <v>9.5083561144389733E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>109.3</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>44.101374667329225</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>-4.8986253326707754</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11107647708541227</v>
+      </c>
+      <c r="F50" s="3">
+        <f>$J$2*A50^5 + $J$3*A50^4 + $J$4*A50^3 + $J$5*A50^2 + $J$6*A50 + $J$7</f>
+        <v>43.972410889503379</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="3"/>
+        <v>-5.0275891104966206</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11433507985564541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>109</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>44.263734849898022</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>-5.7362651501019783</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12959288613024017</v>
+      </c>
+      <c r="F51" s="3">
+        <f>$J$2*A51^5 + $J$3*A51^4 + $J$4*A51^3 + $J$5*A51^2 + $J$6*A51 + $J$7</f>
+        <v>44.11307919273213</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="3"/>
+        <v>-5.8869208072678703</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13345068888860909</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>108.7</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>44.427142719711725</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>-6.5728572802882752</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14794688287194277</v>
+      </c>
+      <c r="F52" s="3">
+        <f>$J$2*A52^5 + $J$3*A52^4 + $J$4*A52^3 + $J$5*A52^2 + $J$6*A52 + $J$7</f>
+        <v>44.254278038438187</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="3"/>
+        <v>-6.7457219615618129</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15243095719927108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>108.4</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>44.591607956918459</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>-7.4083920430815411</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16613870596994512</v>
+      </c>
+      <c r="F53" s="3">
+        <f>$J$2*A53^5 + $J$3*A53^4 + $J$4*A53^3 + $J$5*A53^2 + $J$6*A53 + $J$7</f>
+        <v>44.396009028606642</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="3"/>
+        <v>-7.6039909713933582</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17127645339682929</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>108.1</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>44.757140358231744</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>-8.2428596417682556</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18416859468217181</v>
+      </c>
+      <c r="F54" s="3">
+        <f>$J$2*A54^5 + $J$3*A54^4 + $J$4*A54^3 + $J$5*A54^2 + $J$6*A54 + $J$7</f>
+        <v>44.538273768348716</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="3"/>
+        <v>-8.4617262316512836</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="4"/>
+        <v>0.18998774572319954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>108</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>44.812556683179523</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>-9.1874433168204774</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20501939627713769</v>
+      </c>
+      <c r="F55" s="3">
+        <f>$J$2*A55^5 + $J$3*A55^4 + $J$4*A55^3 + $J$5*A55^2 + $J$6*A55 + $J$7</f>
+        <v>44.58581423715637</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.4141857628436298</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21114755722007547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>107.9</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>44.868093052769225</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>-10.131906947230775</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2258154126433381</v>
+      </c>
+      <c r="F56" s="3">
+        <f>$J$2*A56^5 + $J$3*A56^4 + $J$4*A56^3 + $J$5*A56^2 + $J$6*A56 + $J$7</f>
+        <v>44.633414249781495</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="3"/>
+        <v>-10.366585750218505</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="4"/>
+        <v>0.23226064876426644</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>107.8</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>44.923749838662538</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>-11.076250161337462</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24655666993775652</v>
+      </c>
+      <c r="F57" s="3">
+        <f>$J$2*A57^5 + $J$3*A57^4 + $J$4*A57^3 + $J$5*A57^2 + $J$6*A57 + $J$7</f>
+        <v>44.681073865904651</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="3"/>
+        <v>-11.318926134095349</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25332708358947087</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>107.7</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>44.979527414018513</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>-12.020472585981487</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26724319433901245</v>
+      </c>
+      <c r="F58" s="3">
+        <f>$J$2*A58^5 + $J$3*A58^4 + $J$4*A58^3 + $J$5*A58^2 + $J$6*A58 + $J$7</f>
+        <v>44.72879314524485</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="3"/>
+        <v>-12.27120685475515</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2743469249194288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>107.6</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>45.035426153500069</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>-12.964573846499931</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28787501204742899</v>
+      </c>
+      <c r="F59" s="3">
+        <f>$J$2*A59^5 + $J$3*A59^4 + $J$4*A59^3 + $J$5*A59^2 + $J$6*A59 + $J$7</f>
+        <v>44.776572147559975</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="3"/>
+        <v>-13.223427852440025</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="4"/>
+        <v>0.29532023596765244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>107.5</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>45.091446433282243</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>-13.908553566717757</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30845214928505327</v>
+      </c>
+      <c r="F60" s="3">
+        <f>$J$2*A60^5 + $J$3*A60^4 + $J$4*A60^3 + $J$5*A60^2 + $J$6*A60 + $J$7</f>
+        <v>44.8244109326466</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="3"/>
+        <v>-14.1755890673534</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31624707993717344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>107.4</v>
+      </c>
+      <c r="B61">
         <v>60</v>
       </c>
-      <c r="M3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B31" si="0">-3.9346*A4 + 1180.4</f>
-        <v>1062.3620000000001</v>
-      </c>
-      <c r="L4">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1023.0160000000001</v>
-      </c>
-      <c r="L5">
-        <v>25</v>
-      </c>
-      <c r="M5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>983.67000000000007</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>944.32400000000007</v>
-      </c>
-      <c r="L7">
-        <v>15</v>
-      </c>
-      <c r="M7">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>904.97800000000007</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>80</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>865.63200000000006</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>826.28600000000006</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>786.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>110</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>747.59400000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>120</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>708.24800000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>130</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>668.90200000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>140</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>629.55600000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>150</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>590.21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>160</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>550.86400000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>170</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>511.51800000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>180</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>472.17200000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>190</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>432.82600000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>200</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>393.48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>210</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>354.13400000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>220</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>314.78800000000012</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>230</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>275.44200000000012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>240</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>236.09600000000012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>250</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>196.75000000000011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>260</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>157.40400000000011</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>270</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>118.05799999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>280</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>78.711999999999989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>290</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>39.365999999999985</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>300</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>1.999999999998181E-2</v>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>45.147588631059151</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>-14.852411368940849</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32897463229571416</v>
+      </c>
+      <c r="F61" s="3">
+        <f>$J$2*A61^5 + $J$3*A61^4 + $J$4*A61^3 + $J$5*A61^2 + $J$6*A61 + $J$7</f>
+        <v>44.872309560339943</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="3"/>
+        <v>-15.127690439660057</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="4"/>
+        <v>0.33712752002028784</v>
       </c>
     </row>
   </sheetData>
